--- a/inst/extdata/toyFiles/ROC/OK.xlsx
+++ b/inst/extdata/toyFiles/ROC/OK.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="1720" windowWidth="25360" windowHeight="15380" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="18">
   <si>
     <t>CaseID</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>TP_Rating</t>
+  </si>
+  <si>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>crossed</t>
+  </si>
+  <si>
+    <t>ROC</t>
   </si>
 </sst>
 </file>
@@ -914,19 +929,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,8 +956,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -953,8 +979,17 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -967,8 +1002,12 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -981,8 +1020,12 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -995,8 +1038,12 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1009,8 +1056,12 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -1023,8 +1074,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -1037,8 +1092,12 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1051,6 +1110,65 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1067,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/toyFiles/ROC/OK.xlsx
+++ b/inst/extdata/toyFiles/ROC/OK.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="17">
   <si>
     <t>CaseID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Paradigm</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
   <si>
     <t>0,1</t>
@@ -929,10 +926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -943,7 +940,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,11 +959,8 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -980,16 +974,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1003,11 +994,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1021,11 +1014,11 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -1039,11 +1032,11 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1057,11 +1050,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -1075,11 +1068,11 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -1093,11 +1086,11 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1111,33 +1104,33 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5">

--- a/inst/extdata/toyFiles/ROC/OK.xlsx
+++ b/inst/extdata/toyFiles/ROC/OK.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="16420" yWindow="140" windowWidth="11380" windowHeight="10580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="2" r:id="rId1"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
